--- a/Lab 2/graphs/graphs.xlsx
+++ b/Lab 2/graphs/graphs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AsusUser\Desktop\data_structs\Lab 2\graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvden\Desktop\Univer\Structures\data_structs\Lab 2\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="19200" windowHeight="7040" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="19200" windowHeight="7035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="same_values" sheetId="5" r:id="rId1"/>
@@ -139,7 +139,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1388,7 +1387,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2851,6 +2849,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3042,106 +3041,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5999999999999993E-2</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11899999999999999</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16900000000000001</c:v>
+                  <c:v>0.27300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.214</c:v>
+                  <c:v>0.42599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>0.44500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33200000000000002</c:v>
+                  <c:v>0.52500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42099999999999999</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.48599999999999999</c:v>
+                  <c:v>0.68799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.56399999999999995</c:v>
+                  <c:v>0.54200000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.66100000000000003</c:v>
+                  <c:v>0.64200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.80100000000000005</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.84799999999999998</c:v>
+                  <c:v>0.80900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.96899999999999997</c:v>
+                  <c:v>0.91100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.089</c:v>
+                  <c:v>1.014</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2090000000000001</c:v>
+                  <c:v>1.153</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.35</c:v>
+                  <c:v>1.2689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4870000000000001</c:v>
+                  <c:v>1.4219999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6120000000000001</c:v>
+                  <c:v>1.5549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7749999999999999</c:v>
+                  <c:v>1.6910000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9650000000000001</c:v>
+                  <c:v>1.84</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0960000000000001</c:v>
+                  <c:v>1.958</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.278</c:v>
+                  <c:v>2.1669999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.4239999999999999</c:v>
+                  <c:v>2.3029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0089999999999999</c:v>
+                  <c:v>2.476</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7749999999999999</c:v>
+                  <c:v>2.681</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9830000000000001</c:v>
+                  <c:v>2.8679999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1589999999999998</c:v>
+                  <c:v>3.0739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3519999999999999</c:v>
+                  <c:v>3.3079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.5619999999999998</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.8170000000000002</c:v>
+                  <c:v>3.7789999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3309,106 +3308,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.05</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6999999999999994E-2</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.107</c:v>
+                  <c:v>0.16900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.122</c:v>
+                  <c:v>0.20499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13800000000000001</c:v>
+                  <c:v>0.251</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.185</c:v>
+                  <c:v>0.23699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.22500000000000001</c:v>
+                  <c:v>0.219</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.26100000000000001</c:v>
+                  <c:v>0.23200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.30199999999999999</c:v>
+                  <c:v>0.28699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.34799999999999998</c:v>
+                  <c:v>0.32600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.371</c:v>
+                  <c:v>0.36399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.432</c:v>
+                  <c:v>0.41099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.48099999999999998</c:v>
+                  <c:v>0.47399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.53300000000000003</c:v>
+                  <c:v>0.51100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.57199999999999995</c:v>
+                  <c:v>0.55100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.66400000000000003</c:v>
+                  <c:v>0.58599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.68899999999999995</c:v>
+                  <c:v>0.65800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.75</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.81299999999999994</c:v>
+                  <c:v>0.78900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.86799999999999999</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.93600000000000005</c:v>
+                  <c:v>0.92700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0209999999999999</c:v>
+                  <c:v>0.96299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0640000000000001</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1200000000000001</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2470000000000001</c:v>
+                  <c:v>1.2290000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3260000000000001</c:v>
+                  <c:v>1.2869999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3939999999999999</c:v>
+                  <c:v>1.371</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.482</c:v>
+                  <c:v>1.4590000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3582,100 +3581,100 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5999999999999993E-2</c:v>
+                  <c:v>0.14399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.115</c:v>
+                  <c:v>0.16800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14799999999999999</c:v>
+                  <c:v>0.20300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.153</c:v>
+                  <c:v>0.18099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.21099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.20100000000000001</c:v>
+                  <c:v>0.20399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.23200000000000001</c:v>
+                  <c:v>0.23499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28499999999999998</c:v>
+                  <c:v>0.252</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.309</c:v>
+                  <c:v>0.28100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33800000000000002</c:v>
+                  <c:v>0.34799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.39500000000000002</c:v>
+                  <c:v>0.38400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.43</c:v>
+                  <c:v>0.41599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.47199999999999998</c:v>
+                  <c:v>0.47699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.51400000000000001</c:v>
+                  <c:v>0.505</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.56299999999999994</c:v>
+                  <c:v>0.54400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.63</c:v>
+                  <c:v>0.60799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.65100000000000002</c:v>
+                  <c:v>0.63100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.71499999999999997</c:v>
+                  <c:v>0.70099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.78200000000000003</c:v>
+                  <c:v>0.76100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.90100000000000002</c:v>
+                  <c:v>0.81699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.88500000000000001</c:v>
+                  <c:v>0.85899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.93400000000000005</c:v>
+                  <c:v>0.93300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0009999999999999</c:v>
+                  <c:v>0.998</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.0760000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.151</c:v>
+                  <c:v>1.159</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.218</c:v>
+                  <c:v>1.234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3846,103 +3845,103 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>0.14399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11600000000000001</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15</c:v>
+                  <c:v>0.255</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19700000000000001</c:v>
+                  <c:v>0.32200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23200000000000001</c:v>
+                  <c:v>0.38300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28899999999999998</c:v>
+                  <c:v>0.47899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.34300000000000003</c:v>
+                  <c:v>0.35099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.4</c:v>
+                  <c:v>0.39200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47</c:v>
+                  <c:v>0.46300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.56299999999999994</c:v>
+                  <c:v>0.51600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.63500000000000001</c:v>
+                  <c:v>0.57899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7</c:v>
+                  <c:v>0.68300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.78800000000000003</c:v>
+                  <c:v>0.754</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88600000000000001</c:v>
+                  <c:v>0.83699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.95699999999999996</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0629999999999999</c:v>
+                  <c:v>1.0489999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.181</c:v>
+                  <c:v>1.1020000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2769999999999999</c:v>
+                  <c:v>1.254</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4059999999999999</c:v>
+                  <c:v>1.367</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.534</c:v>
+                  <c:v>1.458</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.641</c:v>
+                  <c:v>1.5429999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7769999999999999</c:v>
+                  <c:v>1.6950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3180000000000001</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.5609999999999999</c:v>
+                  <c:v>1.921</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.4460000000000002</c:v>
+                  <c:v>2.0710000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.3140000000000001</c:v>
+                  <c:v>2.2480000000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>2.431</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.6230000000000002</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.7770000000000001</c:v>
+                  <c:v>2.7010000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4099,6 +4098,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4205,6 +4205,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5453,6 +5454,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5752,106 +5754,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5999999999999993E-2</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11899999999999999</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16900000000000001</c:v>
+                  <c:v>0.27300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.214</c:v>
+                  <c:v>0.42599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>0.44500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33200000000000002</c:v>
+                  <c:v>0.52500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42099999999999999</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.48599999999999999</c:v>
+                  <c:v>0.68799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.56399999999999995</c:v>
+                  <c:v>0.54200000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.66100000000000003</c:v>
+                  <c:v>0.64200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.80100000000000005</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.84799999999999998</c:v>
+                  <c:v>0.80900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.96899999999999997</c:v>
+                  <c:v>0.91100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.089</c:v>
+                  <c:v>1.014</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2090000000000001</c:v>
+                  <c:v>1.153</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.35</c:v>
+                  <c:v>1.2689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4870000000000001</c:v>
+                  <c:v>1.4219999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6120000000000001</c:v>
+                  <c:v>1.5549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7749999999999999</c:v>
+                  <c:v>1.6910000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9650000000000001</c:v>
+                  <c:v>1.84</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0960000000000001</c:v>
+                  <c:v>1.958</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.278</c:v>
+                  <c:v>2.1669999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.4239999999999999</c:v>
+                  <c:v>2.3029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0089999999999999</c:v>
+                  <c:v>2.476</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7749999999999999</c:v>
+                  <c:v>2.681</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9830000000000001</c:v>
+                  <c:v>2.8679999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1589999999999998</c:v>
+                  <c:v>3.0739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3519999999999999</c:v>
+                  <c:v>3.3079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.5619999999999998</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.8170000000000002</c:v>
+                  <c:v>3.7789999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6019,106 +6021,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.05</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6999999999999994E-2</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.107</c:v>
+                  <c:v>0.16900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.122</c:v>
+                  <c:v>0.20499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13800000000000001</c:v>
+                  <c:v>0.251</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.185</c:v>
+                  <c:v>0.23699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.22500000000000001</c:v>
+                  <c:v>0.219</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.26100000000000001</c:v>
+                  <c:v>0.23200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.30199999999999999</c:v>
+                  <c:v>0.28699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.34799999999999998</c:v>
+                  <c:v>0.32600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.371</c:v>
+                  <c:v>0.36399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.432</c:v>
+                  <c:v>0.41099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.48099999999999998</c:v>
+                  <c:v>0.47399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.53300000000000003</c:v>
+                  <c:v>0.51100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.57199999999999995</c:v>
+                  <c:v>0.55100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.66400000000000003</c:v>
+                  <c:v>0.58599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.68899999999999995</c:v>
+                  <c:v>0.65800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.75</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.81299999999999994</c:v>
+                  <c:v>0.78900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.86799999999999999</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.93600000000000005</c:v>
+                  <c:v>0.92700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0209999999999999</c:v>
+                  <c:v>0.96299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0640000000000001</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1200000000000001</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2470000000000001</c:v>
+                  <c:v>1.2290000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3260000000000001</c:v>
+                  <c:v>1.2869999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3939999999999999</c:v>
+                  <c:v>1.371</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.482</c:v>
+                  <c:v>1.4590000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6292,100 +6294,100 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5999999999999993E-2</c:v>
+                  <c:v>0.14399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.115</c:v>
+                  <c:v>0.16800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14799999999999999</c:v>
+                  <c:v>0.20300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.153</c:v>
+                  <c:v>0.18099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.21099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.20100000000000001</c:v>
+                  <c:v>0.20399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.23200000000000001</c:v>
+                  <c:v>0.23499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28499999999999998</c:v>
+                  <c:v>0.252</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.309</c:v>
+                  <c:v>0.28100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33800000000000002</c:v>
+                  <c:v>0.34799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.39500000000000002</c:v>
+                  <c:v>0.38400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.43</c:v>
+                  <c:v>0.41599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.47199999999999998</c:v>
+                  <c:v>0.47699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.51400000000000001</c:v>
+                  <c:v>0.505</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.56299999999999994</c:v>
+                  <c:v>0.54400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.63</c:v>
+                  <c:v>0.60799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.65100000000000002</c:v>
+                  <c:v>0.63100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.71499999999999997</c:v>
+                  <c:v>0.70099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.78200000000000003</c:v>
+                  <c:v>0.76100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.90100000000000002</c:v>
+                  <c:v>0.81699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.88500000000000001</c:v>
+                  <c:v>0.85899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.93400000000000005</c:v>
+                  <c:v>0.93300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0009999999999999</c:v>
+                  <c:v>0.998</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.0760000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.151</c:v>
+                  <c:v>1.159</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.218</c:v>
+                  <c:v>1.234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6556,103 +6558,103 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>0.14399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11600000000000001</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15</c:v>
+                  <c:v>0.255</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19700000000000001</c:v>
+                  <c:v>0.32200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23200000000000001</c:v>
+                  <c:v>0.38300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28899999999999998</c:v>
+                  <c:v>0.47899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.34300000000000003</c:v>
+                  <c:v>0.35099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.4</c:v>
+                  <c:v>0.39200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47</c:v>
+                  <c:v>0.46300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.56299999999999994</c:v>
+                  <c:v>0.51600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.63500000000000001</c:v>
+                  <c:v>0.57899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7</c:v>
+                  <c:v>0.68300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.78800000000000003</c:v>
+                  <c:v>0.754</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88600000000000001</c:v>
+                  <c:v>0.83699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.95699999999999996</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0629999999999999</c:v>
+                  <c:v>1.0489999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.181</c:v>
+                  <c:v>1.1020000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2769999999999999</c:v>
+                  <c:v>1.254</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4059999999999999</c:v>
+                  <c:v>1.367</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.534</c:v>
+                  <c:v>1.458</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.641</c:v>
+                  <c:v>1.5429999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7769999999999999</c:v>
+                  <c:v>1.6950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3180000000000001</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.5609999999999999</c:v>
+                  <c:v>1.921</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.4460000000000002</c:v>
+                  <c:v>2.0710000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.3140000000000001</c:v>
+                  <c:v>2.2480000000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>2.431</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.6230000000000002</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.7770000000000001</c:v>
+                  <c:v>2.7010000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15944,9 +15946,9 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -15963,7 +15965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -15980,7 +15982,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -15997,7 +15999,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -16014,7 +16016,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -16031,7 +16033,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -16048,7 +16050,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6000</v>
       </c>
@@ -16065,7 +16067,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7000</v>
       </c>
@@ -16082,7 +16084,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8000</v>
       </c>
@@ -16099,7 +16101,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9000</v>
       </c>
@@ -16116,7 +16118,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -16133,7 +16135,7 @@
         <v>0.314</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11000</v>
       </c>
@@ -16150,7 +16152,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12000</v>
       </c>
@@ -16167,7 +16169,7 @@
         <v>0.45300000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13000</v>
       </c>
@@ -16184,7 +16186,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14000</v>
       </c>
@@ -16201,7 +16203,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15000</v>
       </c>
@@ -16218,7 +16220,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16000</v>
       </c>
@@ -16235,7 +16237,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17000</v>
       </c>
@@ -16252,7 +16254,7 @@
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18000</v>
       </c>
@@ -16269,7 +16271,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19000</v>
       </c>
@@ -16286,7 +16288,7 @@
         <v>1.1379999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20000</v>
       </c>
@@ -16303,7 +16305,7 @@
         <v>1.2470000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21000</v>
       </c>
@@ -16320,7 +16322,7 @@
         <v>1.381</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22000</v>
       </c>
@@ -16337,7 +16339,7 @@
         <v>1.538</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23000</v>
       </c>
@@ -16354,7 +16356,7 @@
         <v>1.643</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24000</v>
       </c>
@@ -16371,7 +16373,7 @@
         <v>1.774</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25000</v>
       </c>
@@ -16388,7 +16390,7 @@
         <v>1.9410000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26000</v>
       </c>
@@ -16405,7 +16407,7 @@
         <v>2.1120000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27000</v>
       </c>
@@ -16422,7 +16424,7 @@
         <v>2.278</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28000</v>
       </c>
@@ -16439,7 +16441,7 @@
         <v>2.4540000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29000</v>
       </c>
@@ -16456,7 +16458,7 @@
         <v>2.6640000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30000</v>
       </c>
@@ -16473,7 +16475,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31000</v>
       </c>
@@ -16490,7 +16492,7 @@
         <v>3.0209999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32000</v>
       </c>
@@ -16507,7 +16509,7 @@
         <v>3.1920000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33000</v>
       </c>
@@ -16524,7 +16526,7 @@
         <v>3.496</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34000</v>
       </c>
@@ -16555,9 +16557,9 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -16574,7 +16576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -16591,7 +16593,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -16608,7 +16610,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -16625,7 +16627,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -16642,7 +16644,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -16659,7 +16661,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6000</v>
       </c>
@@ -16676,7 +16678,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7000</v>
       </c>
@@ -16693,7 +16695,7 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8000</v>
       </c>
@@ -16710,7 +16712,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9000</v>
       </c>
@@ -16727,7 +16729,7 @@
         <v>0.60099999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -16744,7 +16746,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11000</v>
       </c>
@@ -16761,7 +16763,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12000</v>
       </c>
@@ -16778,7 +16780,7 @@
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13000</v>
       </c>
@@ -16795,7 +16797,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14000</v>
       </c>
@@ -16812,7 +16814,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15000</v>
       </c>
@@ -16829,7 +16831,7 @@
         <v>1.0169999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16000</v>
       </c>
@@ -16846,7 +16848,7 @@
         <v>1.147</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17000</v>
       </c>
@@ -16863,7 +16865,7 @@
         <v>1.298</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18000</v>
       </c>
@@ -16880,7 +16882,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19000</v>
       </c>
@@ -16897,7 +16899,7 @@
         <v>1.615</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20000</v>
       </c>
@@ -16914,7 +16916,7 @@
         <v>1.8120000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21000</v>
       </c>
@@ -16931,7 +16933,7 @@
         <v>2.0049999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22000</v>
       </c>
@@ -16948,7 +16950,7 @@
         <v>2.2240000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23000</v>
       </c>
@@ -16965,7 +16967,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24000</v>
       </c>
@@ -16982,7 +16984,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25000</v>
       </c>
@@ -16999,7 +17001,7 @@
         <v>2.839</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26000</v>
       </c>
@@ -17016,7 +17018,7 @@
         <v>3.048</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27000</v>
       </c>
@@ -17033,7 +17035,7 @@
         <v>3.3530000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28000</v>
       </c>
@@ -17050,7 +17052,7 @@
         <v>3.597</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29000</v>
       </c>
@@ -17067,7 +17069,7 @@
         <v>3.8319999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30000</v>
       </c>
@@ -17084,7 +17086,7 @@
         <v>4.0529999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31000</v>
       </c>
@@ -17101,7 +17103,7 @@
         <v>4.3849999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32000</v>
       </c>
@@ -17118,7 +17120,7 @@
         <v>4.6980000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33000</v>
       </c>
@@ -17135,7 +17137,7 @@
         <v>5.165</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34000</v>
       </c>
@@ -17162,13 +17164,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E35" sqref="A1:E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -17185,15 +17187,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -17202,565 +17204,565 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>1.7999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.6E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3000</v>
       </c>
       <c r="B4">
-        <v>3.1E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D4">
-        <v>1.9E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E4">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4000</v>
       </c>
       <c r="B5">
-        <v>5.3999999999999999E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="C5">
-        <v>2.1000000000000001E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D5">
-        <v>1.6E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E5">
-        <v>3.1E-2</v>
+        <v>6.3E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5000</v>
       </c>
       <c r="B6">
-        <v>8.5999999999999993E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C6">
-        <v>3.5999999999999997E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D6">
-        <v>0.03</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E6">
-        <v>4.7E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6000</v>
       </c>
       <c r="B7">
-        <v>0.11899999999999999</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="C7">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="D7">
-        <v>4.9000000000000002E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E7">
-        <v>8.3000000000000004E-2</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7000</v>
       </c>
       <c r="B8">
-        <v>0.16900000000000001</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C8">
-        <v>6.2E-2</v>
+        <v>0.112</v>
       </c>
       <c r="D8">
-        <v>5.3999999999999999E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E8">
-        <v>0.11600000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8000</v>
       </c>
       <c r="B9">
-        <v>0.214</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="C9">
-        <v>8.6999999999999994E-2</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="D9">
-        <v>6.9000000000000006E-2</v>
+        <v>0.112</v>
       </c>
       <c r="E9">
-        <v>0.15</v>
+        <v>0.255</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9000</v>
       </c>
       <c r="B10">
-        <v>0.27200000000000002</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="C10">
-        <v>0.107</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="D10">
-        <v>8.5999999999999993E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E10">
-        <v>0.19700000000000001</v>
+        <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>0.33200000000000002</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C11">
-        <v>0.122</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D11">
-        <v>0.115</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="E11">
-        <v>0.23200000000000001</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11000</v>
       </c>
       <c r="B12">
-        <v>0.42099999999999999</v>
+        <v>0.625</v>
       </c>
       <c r="C12">
-        <v>0.13800000000000001</v>
+        <v>0.251</v>
       </c>
       <c r="D12">
-        <v>0.14799999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="E12">
-        <v>0.28899999999999998</v>
+        <v>0.47899999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12000</v>
       </c>
       <c r="B13">
-        <v>0.48599999999999999</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="C13">
-        <v>0.185</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="D13">
-        <v>0.153</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="E13">
-        <v>0.34300000000000003</v>
+        <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13000</v>
       </c>
       <c r="B14">
-        <v>0.56399999999999995</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="C14">
-        <v>0.22500000000000001</v>
+        <v>0.219</v>
       </c>
       <c r="D14">
-        <v>0.17499999999999999</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="E14">
-        <v>0.4</v>
+        <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14000</v>
       </c>
       <c r="B15">
-        <v>0.66100000000000003</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="C15">
-        <v>0.26100000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="D15">
-        <v>0.20100000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="E15">
-        <v>0.47</v>
+        <v>0.46300000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15000</v>
       </c>
       <c r="B16">
-        <v>0.80100000000000005</v>
+        <v>0.72</v>
       </c>
       <c r="C16">
-        <v>0.30199999999999999</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="D16">
-        <v>0.23200000000000001</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E16">
-        <v>0.56299999999999994</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16000</v>
       </c>
       <c r="B17">
-        <v>0.84799999999999998</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="C17">
-        <v>0.34799999999999998</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D17">
-        <v>0.28499999999999998</v>
+        <v>0.252</v>
       </c>
       <c r="E17">
-        <v>0.63500000000000001</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17000</v>
       </c>
       <c r="B18">
-        <v>0.96899999999999997</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="C18">
-        <v>0.371</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="D18">
-        <v>0.309</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="E18">
-        <v>0.7</v>
+        <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18000</v>
       </c>
       <c r="B19">
-        <v>1.089</v>
+        <v>1.014</v>
       </c>
       <c r="C19">
-        <v>0.432</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="D19">
-        <v>0.33800000000000002</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="E19">
-        <v>0.78800000000000003</v>
+        <v>0.754</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19000</v>
       </c>
       <c r="B20">
-        <v>1.2090000000000001</v>
+        <v>1.153</v>
       </c>
       <c r="C20">
-        <v>0.48099999999999998</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="D20">
-        <v>0.39500000000000002</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="E20">
-        <v>0.88600000000000001</v>
+        <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20000</v>
       </c>
       <c r="B21">
-        <v>1.35</v>
+        <v>1.2689999999999999</v>
       </c>
       <c r="C21">
-        <v>0.53300000000000003</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D21">
-        <v>0.43</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="E21">
-        <v>0.95699999999999996</v>
+        <v>0.93</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21000</v>
       </c>
       <c r="B22">
-        <v>1.4870000000000001</v>
+        <v>1.4219999999999999</v>
       </c>
       <c r="C22">
-        <v>0.57199999999999995</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D22">
-        <v>0.47199999999999998</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="E22">
-        <v>1.0629999999999999</v>
+        <v>1.0489999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22000</v>
       </c>
       <c r="B23">
-        <v>1.6120000000000001</v>
+        <v>1.5549999999999999</v>
       </c>
       <c r="C23">
-        <v>0.66400000000000003</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D23">
-        <v>0.51400000000000001</v>
+        <v>0.505</v>
       </c>
       <c r="E23">
-        <v>1.181</v>
+        <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23000</v>
       </c>
       <c r="B24">
-        <v>1.7749999999999999</v>
+        <v>1.6910000000000001</v>
       </c>
       <c r="C24">
-        <v>0.68899999999999995</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D24">
-        <v>0.56299999999999994</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="E24">
-        <v>1.2769999999999999</v>
+        <v>1.254</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24000</v>
       </c>
       <c r="B25">
-        <v>1.9650000000000001</v>
+        <v>1.84</v>
       </c>
       <c r="C25">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="D25">
-        <v>0.63</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="E25">
-        <v>1.4059999999999999</v>
+        <v>1.367</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25000</v>
       </c>
       <c r="B26">
-        <v>2.0960000000000001</v>
+        <v>1.958</v>
       </c>
       <c r="C26">
-        <v>0.81299999999999994</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="D26">
-        <v>0.65100000000000002</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="E26">
-        <v>1.534</v>
+        <v>1.458</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26000</v>
       </c>
       <c r="B27">
-        <v>2.278</v>
+        <v>2.1669999999999998</v>
       </c>
       <c r="C27">
-        <v>0.86799999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="D27">
-        <v>0.71499999999999997</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="E27">
-        <v>1.641</v>
+        <v>1.5429999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27000</v>
       </c>
       <c r="B28">
-        <v>2.4239999999999999</v>
+        <v>2.3029999999999999</v>
       </c>
       <c r="C28">
-        <v>0.93600000000000005</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="D28">
-        <v>0.78200000000000003</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="E28">
-        <v>1.7769999999999999</v>
+        <v>1.6950000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28000</v>
       </c>
       <c r="B29">
-        <v>3.0089999999999999</v>
+        <v>2.476</v>
       </c>
       <c r="C29">
-        <v>1.0209999999999999</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D29">
-        <v>0.90100000000000002</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="E29">
-        <v>2.3180000000000001</v>
+        <v>1.82</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29000</v>
       </c>
       <c r="B30">
-        <v>2.7749999999999999</v>
+        <v>2.681</v>
       </c>
       <c r="C30">
-        <v>1.0640000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="D30">
-        <v>0.88500000000000001</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="E30">
-        <v>2.5609999999999999</v>
+        <v>1.921</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30000</v>
       </c>
       <c r="B31">
-        <v>2.9830000000000001</v>
+        <v>2.8679999999999999</v>
       </c>
       <c r="C31">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D31">
-        <v>0.93400000000000005</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="E31">
-        <v>2.4460000000000002</v>
+        <v>2.0710000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31000</v>
       </c>
       <c r="B32">
-        <v>3.1589999999999998</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="C32">
-        <v>1.2470000000000001</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="D32">
-        <v>1.0009999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="E32">
-        <v>2.3140000000000001</v>
+        <v>2.2480000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32000</v>
       </c>
       <c r="B33">
-        <v>3.3519999999999999</v>
+        <v>3.3079999999999998</v>
       </c>
       <c r="C33">
-        <v>1.3260000000000001</v>
+        <v>1.2869999999999999</v>
       </c>
       <c r="D33">
         <v>1.0760000000000001</v>
       </c>
       <c r="E33">
-        <v>2.4500000000000002</v>
+        <v>2.431</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33000</v>
       </c>
       <c r="B34">
-        <v>3.5619999999999998</v>
+        <v>3.55</v>
       </c>
       <c r="C34">
-        <v>1.3939999999999999</v>
+        <v>1.371</v>
       </c>
       <c r="D34">
-        <v>1.151</v>
+        <v>1.159</v>
       </c>
       <c r="E34">
-        <v>2.6230000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34000</v>
       </c>
       <c r="B35">
-        <v>3.8170000000000002</v>
+        <v>3.7789999999999999</v>
       </c>
       <c r="C35">
-        <v>1.482</v>
+        <v>1.4590000000000001</v>
       </c>
       <c r="D35">
-        <v>1.218</v>
+        <v>1.234</v>
       </c>
       <c r="E35">
-        <v>2.7770000000000001</v>
+        <v>2.7010000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -17773,13 +17775,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -17796,7 +17798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -17813,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -17830,7 +17832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -17847,7 +17849,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -17864,7 +17866,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -17881,7 +17883,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6000</v>
       </c>
@@ -17898,7 +17900,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7000</v>
       </c>
@@ -17915,7 +17917,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8000</v>
       </c>
@@ -17932,7 +17934,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9000</v>
       </c>
@@ -17949,7 +17951,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -17966,7 +17968,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11000</v>
       </c>
@@ -17983,7 +17985,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12000</v>
       </c>
@@ -18000,7 +18002,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13000</v>
       </c>
@@ -18017,7 +18019,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14000</v>
       </c>
@@ -18034,7 +18036,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15000</v>
       </c>
@@ -18051,7 +18053,7 @@
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16000</v>
       </c>
@@ -18068,7 +18070,7 @@
         <v>0.622</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17000</v>
       </c>
@@ -18085,7 +18087,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18000</v>
       </c>
@@ -18102,7 +18104,7 @@
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19000</v>
       </c>
@@ -18119,7 +18121,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20000</v>
       </c>
@@ -18136,7 +18138,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21000</v>
       </c>
@@ -18153,7 +18155,7 @@
         <v>1.0780000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22000</v>
       </c>
@@ -18170,7 +18172,7 @@
         <v>1.171</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23000</v>
       </c>
@@ -18187,7 +18189,7 @@
         <v>1.3140000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24000</v>
       </c>
@@ -18204,7 +18206,7 @@
         <v>1.381</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25000</v>
       </c>
@@ -18221,7 +18223,7 @@
         <v>1.5189999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26000</v>
       </c>
@@ -18238,7 +18240,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27000</v>
       </c>
@@ -18255,7 +18257,7 @@
         <v>1.7909999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28000</v>
       </c>
@@ -18272,7 +18274,7 @@
         <v>1.873</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29000</v>
       </c>
@@ -18289,7 +18291,7 @@
         <v>2.0419999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30000</v>
       </c>
@@ -18306,7 +18308,7 @@
         <v>2.1840000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31000</v>
       </c>
@@ -18323,7 +18325,7 @@
         <v>2.298</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32000</v>
       </c>
@@ -18340,7 +18342,7 @@
         <v>2.476</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33000</v>
       </c>
@@ -18357,7 +18359,7 @@
         <v>2.6259999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34000</v>
       </c>
@@ -18384,11 +18386,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
